--- a/bin/Debug/配置文件.xlsx
+++ b/bin/Debug/配置文件.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\C#Code\FOGTestPlatform\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCB159-9411-4B7C-80EC-A79A770F3B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通道串口配置" sheetId="1" r:id="rId1"/>
     <sheet name="标度因数参数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
@@ -29,122 +23,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
-  <si>
-    <t>使能</t>
-  </si>
-  <si>
-    <t>串口号</t>
-  </si>
-  <si>
-    <t>波特率</t>
-  </si>
-  <si>
-    <t>数据位</t>
-  </si>
-  <si>
-    <t>停止位</t>
-  </si>
-  <si>
-    <t>校验位</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>标度因数</t>
-  </si>
-  <si>
-    <t>转台通道</t>
-  </si>
-  <si>
-    <t>通道一</t>
-  </si>
-  <si>
-    <t>通道二</t>
-  </si>
-  <si>
-    <t>通道三</t>
-  </si>
-  <si>
-    <t>通道四</t>
-  </si>
-  <si>
-    <t>通道五</t>
-  </si>
-  <si>
-    <t>通道六</t>
-  </si>
-  <si>
-    <t>测试通道数</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>460800</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>CH1</t>
-  </si>
-  <si>
-    <t>4200000</t>
-  </si>
-  <si>
-    <t>COM2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">串口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">型号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标度因数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">转台通道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道五</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道六</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试通道数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
+    <t xml:space="preserve">None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end</t>
+    <t xml:space="preserve">end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COM1</t>
-  </si>
-  <si>
-    <t>115200</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>编号</t>
+    <t xml:space="preserve">COM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所用数据</t>
+    <t xml:space="preserve">所用数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旋转时间（s）</t>
+    <t xml:space="preserve">旋转时间（s）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变速时间（s）</t>
+    <t xml:space="preserve">变速时间（s）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">COM19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,12 +196,12 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -193,11 +211,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -499,19 +517,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -545,7 +563,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -566,7 +584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -574,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -595,52 +613,129 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -651,21 +746,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -673,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -693,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>0</v>
       </c>
@@ -788,20 +883,44 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9">
         <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/配置文件.xlsx
+++ b/bin/Debug/配置文件.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\C#Code\FOGTestPlatform\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCB159-9411-4B7C-80EC-A79A770F3B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通道串口配置" sheetId="1" r:id="rId1"/>
     <sheet name="标度因数参数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
@@ -29,122 +23,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
-  <si>
-    <t>使能</t>
-  </si>
-  <si>
-    <t>串口号</t>
-  </si>
-  <si>
-    <t>波特率</t>
-  </si>
-  <si>
-    <t>数据位</t>
-  </si>
-  <si>
-    <t>停止位</t>
-  </si>
-  <si>
-    <t>校验位</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>标度因数</t>
-  </si>
-  <si>
-    <t>转台通道</t>
-  </si>
-  <si>
-    <t>通道一</t>
-  </si>
-  <si>
-    <t>通道二</t>
-  </si>
-  <si>
-    <t>通道三</t>
-  </si>
-  <si>
-    <t>通道四</t>
-  </si>
-  <si>
-    <t>通道五</t>
-  </si>
-  <si>
-    <t>通道六</t>
-  </si>
-  <si>
-    <t>测试通道数</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>460800</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>CH1</t>
-  </si>
-  <si>
-    <t>4200000</t>
-  </si>
-  <si>
-    <t>COM2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">串口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">型号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标度因数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">转台通道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道五</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道六</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试通道数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
+    <t xml:space="preserve">None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end</t>
+    <t xml:space="preserve">end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COM1</t>
-  </si>
-  <si>
-    <t>115200</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>编号</t>
+    <t xml:space="preserve">COM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所用数据</t>
+    <t xml:space="preserve">所用数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旋转时间（s）</t>
+    <t xml:space="preserve">旋转时间（s）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变速时间（s）</t>
+    <t xml:space="preserve">变速时间（s）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">COM19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1902A01_04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,12 +184,12 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -193,11 +199,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -499,19 +505,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -545,7 +551,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -566,7 +572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -574,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -589,58 +595,107 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -651,21 +706,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -673,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -693,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>0</v>
       </c>
@@ -788,7 +843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -796,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>30</v>
       </c>
